--- a/Project/Sales Data_Dashboard.xlsx
+++ b/Project/Sales Data_Dashboard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Excel_tutorial\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,8 +26,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Sales breakup by Segment'!$E$4:$E$8</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Sales breakup by Segment'!$F$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet8!$E$5:$F$16</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet8!$G$5:$G$16</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Sales breakup by Segment'!$F$4:$F$8</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet8!$E$5:$F$16</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet8!$G$5:$G$16</definedName>
@@ -36,13 +34,14 @@
     <definedName name="_xlchart.v1.7" hidden="1">'Sales breakup by Segment'!$F$4:$F$8</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Sheet8!$E$5:$F$16</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Sheet8!$G$5:$G$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sales Dashboard'!$A$1:$V$31</definedName>
     <definedName name="Slicer_Month">#N/A</definedName>
     <definedName name="Slicer_Year">#N/A</definedName>
     <definedName name="Slicer_Year1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6586" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6604" uniqueCount="325">
   <si>
     <t>Segment</t>
   </si>
@@ -2016,44 +2015,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
@@ -2069,44 +2030,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2200,40 +2123,40 @@
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6752737.4299999997</c:v>
+                  <c:v>10870125.609999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4497192.9849999994</c:v>
+                  <c:v>6964945.1249999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6466545.3800000008</c:v>
+                  <c:v>8188402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8833873.5800000019</c:v>
+                  <c:v>11001632.279999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9537481.0249999985</c:v>
+                  <c:v>11253334.614999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8152630.2399999993</c:v>
+                  <c:v>10844099.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10494309.960000003</c:v>
+                  <c:v>13152143.790000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8318646.169999999</c:v>
+                  <c:v>11259071.219999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6881192.7649999997</c:v>
+                  <c:v>9120754.1449999977</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5412103.8099999987</c:v>
+                  <c:v>6777940.169999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7274177.79</c:v>
+                  <c:v>7978278.3199999984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9690203.6149999984</c:v>
+                  <c:v>11315623.334999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2319,40 +2242,40 @@
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>989375.92999999982</c:v>
+                  <c:v>1852011.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>607889.98499999987</c:v>
+                  <c:v>924611.12500000012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1045128.38</c:v>
+                  <c:v>1161268.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1296628.5799999998</c:v>
+                  <c:v>1563250.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1282178.0249999999</c:v>
+                  <c:v>1558715.6150000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1026823.74</c:v>
+                  <c:v>1262862.1499999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1485010.96</c:v>
+                  <c:v>1936353.79</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1266488.1700000004</c:v>
+                  <c:v>1719525.2200000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>993297.76500000001</c:v>
+                  <c:v>1309154.1450000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>502491.80999999982</c:v>
+                  <c:v>726638.17000000016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1271140.2900000003</c:v>
+                  <c:v>1302452.8199999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1248784.115</c:v>
+                  <c:v>1576859.8350000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3069,22 +2992,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>121627</c:v>
+                  <c:v>155315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115442</c:v>
+                  <c:v>146846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117918</c:v>
+                  <c:v>154198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>255992.5</c:v>
+                  <c:v>338239.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122953.5</c:v>
+                  <c:v>162424.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127199</c:v>
+                  <c:v>168783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3295,7 +3218,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUST_ID_063</c:v>
+                  <c:v>CUST_ID_068</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3377,7 +3300,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2120586</c:v>
+                  <c:v>497477.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3397,7 +3320,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUST_ID_064</c:v>
+                  <c:v>CUST_ID_069</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3479,7 +3402,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>817309.98</c:v>
+                  <c:v>1998627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3499,7 +3422,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUST_ID_065</c:v>
+                  <c:v>CUST_ID_070</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3581,7 +3504,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1993805.76</c:v>
+                  <c:v>2326353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3601,7 +3524,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUST_ID_066</c:v>
+                  <c:v>CUST_ID_071</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3683,7 +3606,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1662455.07</c:v>
+                  <c:v>53551.799999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3703,7 +3626,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUST_ID_067</c:v>
+                  <c:v>CUST_ID_072</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3785,7 +3708,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>72521.16</c:v>
+                  <c:v>1959650.4900000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4996,28 +4919,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8923318.3899999987</c:v>
+                  <c:v>10706775.540000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13657542</c:v>
+                  <c:v>16979966.499999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13338469.840000004</c:v>
+                  <c:v>17723114.550000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11912161.675000003</c:v>
+                  <c:v>14334370.655000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9256130.745000001</c:v>
+                  <c:v>12460671.975</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9669139.5700000003</c:v>
+                  <c:v>14437517.599999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14598922.690000001</c:v>
+                  <c:v>18449987.640000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10955409.84</c:v>
+                  <c:v>13633945.799999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5418,17 +5341,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="99000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-986D-4F2B-8A9F-6977C8A5F4B1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -5450,6 +5367,17 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="99000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-C61C-43AF-82A5-627129E02CEF}"/>
@@ -5458,9 +5386,9 @@
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Profit generated  by month'!$A$4:$A$17</c:f>
+              <c:f>'Profit generated  by month'!$A$4:$A$30</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="24"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Jan</c:v>
@@ -5498,9 +5426,48 @@
                   <c:pt idx="11">
                     <c:v>Dec</c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Dec</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
                     <c:v>2022</c:v>
                   </c:pt>
                 </c:lvl>
@@ -5509,45 +5476,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Profit generated  by month'!$B$4:$B$17</c:f>
+              <c:f>'Profit generated  by month'!$B$4:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>989375.92999999982</c:v>
+                  <c:v>862635.18000000017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>607889.98499999987</c:v>
+                  <c:v>316721.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>116139.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266621.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>276537.58999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236038.40999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>451342.83000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>453037.04999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>315856.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>224146.36000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31312.53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>328075.71999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>989375.92999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>607889.98499999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1045128.38</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1296628.5799999998</c:v>
+                <c:pt idx="15">
+                  <c:v>1296628.58</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1282178.0249999999</c:v>
+                <c:pt idx="16">
+                  <c:v>1282178.0250000004</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>1026823.74</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>1485010.96</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1266488.1700000004</c:v>
+                <c:pt idx="19">
+                  <c:v>1266488.1699999997</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>993297.76500000001</c:v>
+                <c:pt idx="20">
+                  <c:v>993297.7649999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
                   <c:v>502491.80999999982</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
                   <c:v>1271140.2900000003</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>1248784.115</c:v>
+                <c:pt idx="23">
+                  <c:v>1248784.1150000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6634,22 +6637,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>121627</c:v>
+                  <c:v>155315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115442</c:v>
+                  <c:v>146846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117918</c:v>
+                  <c:v>154198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>255992.5</c:v>
+                  <c:v>338239.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122953.5</c:v>
+                  <c:v>162424.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127199</c:v>
+                  <c:v>168783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6948,40 +6951,40 @@
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6752737.4299999997</c:v>
+                  <c:v>10870125.609999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4497192.9849999994</c:v>
+                  <c:v>6964945.1249999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6466545.3800000008</c:v>
+                  <c:v>8188402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8833873.5800000019</c:v>
+                  <c:v>11001632.279999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9537481.0249999985</c:v>
+                  <c:v>11253334.614999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8152630.2399999993</c:v>
+                  <c:v>10844099.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10494309.960000003</c:v>
+                  <c:v>13152143.790000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8318646.169999999</c:v>
+                  <c:v>11259071.219999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6881192.7649999997</c:v>
+                  <c:v>9120754.1449999977</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5412103.8099999987</c:v>
+                  <c:v>6777940.169999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7274177.79</c:v>
+                  <c:v>7978278.3199999984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9690203.6149999984</c:v>
+                  <c:v>11315623.334999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7067,40 +7070,40 @@
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>989375.92999999982</c:v>
+                  <c:v>1852011.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>607889.98499999987</c:v>
+                  <c:v>924611.12500000012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1045128.38</c:v>
+                  <c:v>1161268.0000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1296628.5799999998</c:v>
+                  <c:v>1563250.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1282178.0249999999</c:v>
+                  <c:v>1558715.6150000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1026823.74</c:v>
+                  <c:v>1262862.1499999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1485010.96</c:v>
+                  <c:v>1936353.79</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1266488.1700000004</c:v>
+                  <c:v>1719525.2200000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>993297.76500000001</c:v>
+                  <c:v>1309154.1450000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>502491.80999999982</c:v>
+                  <c:v>726638.17000000016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1271140.2900000003</c:v>
+                  <c:v>1302452.8199999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1248784.115</c:v>
+                  <c:v>1576859.8350000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7415,7 +7418,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUST_ID_063</c:v>
+                  <c:v>CUST_ID_068</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7499,7 +7502,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2120586</c:v>
+                  <c:v>497477.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7519,7 +7522,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUST_ID_064</c:v>
+                  <c:v>CUST_ID_069</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7603,7 +7606,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>817309.98</c:v>
+                  <c:v>1998627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7623,7 +7626,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUST_ID_065</c:v>
+                  <c:v>CUST_ID_070</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7707,7 +7710,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1993805.76</c:v>
+                  <c:v>2326353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7727,7 +7730,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUST_ID_066</c:v>
+                  <c:v>CUST_ID_071</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7811,7 +7814,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1662455.07</c:v>
+                  <c:v>53551.799999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7831,7 +7834,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CUST_ID_067</c:v>
+                  <c:v>CUST_ID_072</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7915,7 +7918,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>72521.16</c:v>
+                  <c:v>1959650.4900000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8739,28 +8742,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8923318.3899999987</c:v>
+                  <c:v>10706775.540000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13657542</c:v>
+                  <c:v>16979966.499999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13338469.840000004</c:v>
+                  <c:v>17723114.550000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11912161.675000003</c:v>
+                  <c:v>14334370.655000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9256130.745000001</c:v>
+                  <c:v>12460671.975</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9669139.5700000003</c:v>
+                  <c:v>14437517.599999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14598922.690000001</c:v>
+                  <c:v>18449987.640000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10955409.84</c:v>
+                  <c:v>13633945.799999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9068,9 +9071,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Profit generated  by month'!$A$4:$A$17</c:f>
+              <c:f>'Profit generated  by month'!$A$4:$A$30</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="24"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Jan</c:v>
@@ -9108,9 +9111,48 @@
                   <c:pt idx="11">
                     <c:v>Dec</c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Dec</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
                     <c:v>2022</c:v>
                   </c:pt>
                 </c:lvl>
@@ -9119,45 +9161,81 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Profit generated  by month'!$B$4:$B$17</c:f>
+              <c:f>'Profit generated  by month'!$B$4:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>989375.92999999982</c:v>
+                  <c:v>862635.18000000017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>607889.98499999987</c:v>
+                  <c:v>316721.14</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>116139.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266621.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>276537.58999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236038.40999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>451342.83000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>453037.04999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>315856.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>224146.36000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31312.53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>328075.71999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>989375.92999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>607889.98499999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1045128.38</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1296628.5799999998</c:v>
+                <c:pt idx="15">
+                  <c:v>1296628.58</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1282178.0249999999</c:v>
+                <c:pt idx="16">
+                  <c:v>1282178.0250000004</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>1026823.74</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>1485010.96</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1266488.1700000004</c:v>
+                <c:pt idx="19">
+                  <c:v>1266488.1699999997</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>993297.76500000001</c:v>
+                <c:pt idx="20">
+                  <c:v>993297.7649999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
                   <c:v>502491.80999999982</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
                   <c:v>1271140.2900000003</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>1248784.115</c:v>
+                <c:pt idx="23">
+                  <c:v>1248784.1150000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17159,11 +17237,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="'Sales Generated by Customers'!$D$3" max="150" min="1" page="5" val="63"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="'Sales Generated by Customers'!$D$3" max="150" min="1" page="5" val="68"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$D$3" max="150" min="1" page="5" val="63"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$D$3" max="150" min="1" page="5" val="68"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17282,15 +17360,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
+      <xdr:colOff>257173</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>95248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>202405</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17414,13 +17492,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:colOff>190498</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
@@ -17446,18 +17524,18 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>27304</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>321469</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>602166</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>187247</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Month 1"/>
@@ -17474,7 +17552,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17484,8 +17562,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9171304" y="952500"/>
-              <a:ext cx="3201671" cy="771524"/>
+              <a:off x="9465469" y="940594"/>
+              <a:ext cx="3938297" cy="961153"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17517,19 +17595,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>607059</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>345281</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>128111</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90428</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Year 2"/>
@@ -17546,7 +17624,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17556,8 +17634,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9141459" y="1762125"/>
-              <a:ext cx="1574165" cy="581025"/>
+              <a:off x="9489281" y="1914582"/>
+              <a:ext cx="2221230" cy="652346"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17589,16 +17667,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259557</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>150018</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -17657,19 +17735,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>31887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>259079</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>125731</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>22116</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100467</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="Year 3"/>
@@ -17686,7 +17764,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17696,8 +17774,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10896599" y="1771651"/>
-              <a:ext cx="1554480" cy="640080"/>
+              <a:off x="11760994" y="1936887"/>
+              <a:ext cx="1672322" cy="640080"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17730,15 +17808,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
+      <xdr:colOff>309563</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>250031</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17747,8 +17825,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971924" y="80962"/>
-          <a:ext cx="1609726" cy="742950"/>
+          <a:off x="3952876" y="76200"/>
+          <a:ext cx="1762124" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -17825,16 +17903,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>69057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>135732</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17843,8 +17921,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9201149" y="38100"/>
-          <a:ext cx="1343026" cy="828675"/>
+          <a:off x="9748837" y="69057"/>
+          <a:ext cx="1704976" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -17918,16 +17996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17936,8 +18014,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10648951" y="38100"/>
-          <a:ext cx="1628774" cy="809625"/>
+          <a:off x="11513344" y="66675"/>
+          <a:ext cx="1824037" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -18031,15 +18109,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:colOff>431005</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18048,8 +18126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7496174" y="71437"/>
-          <a:ext cx="1543051" cy="762000"/>
+          <a:off x="7717630" y="66675"/>
+          <a:ext cx="1974057" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -18137,13 +18215,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:colOff>261937</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18152,43 +18230,49 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="28575"/>
-          <a:ext cx="3800474" cy="742950"/>
+          <a:off x="0" y="76200"/>
+          <a:ext cx="3905250" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="2800"/>
-            <a:t>Sales</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sales Dashboard</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2800" baseline="0"/>
-            <a:t> Dashboard</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -18197,15 +18281,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
+      <xdr:colOff>345281</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>92869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>330994</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>64294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18214,8 +18298,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5676899" y="85725"/>
-          <a:ext cx="1743076" cy="733425"/>
+          <a:off x="5810250" y="92869"/>
+          <a:ext cx="1807369" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -35282,7 +35366,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -35320,7 +35404,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -35375,7 +35459,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A11:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -35423,7 +35507,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -35471,7 +35555,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:C15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -35509,7 +35593,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -35666,7 +35750,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B153" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -35858,7 +35942,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -36343,7 +36427,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -36381,7 +36465,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -36659,7 +36743,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" showAll="0">
@@ -36706,7 +36790,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -36762,8 +36846,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -36800,7 +36884,7 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -36813,7 +36897,46 @@
     <field x="17"/>
     <field x="15"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -37102,7 +37225,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -37140,7 +37263,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -37362,8 +37485,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:C10" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:C16" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="21">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -37400,7 +37523,7 @@
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="3">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -37427,29 +37550,47 @@
     <field x="19"/>
     <field x="17"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="12">
     <i>
       <x/>
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i>
       <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i>
       <x v="3"/>
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i>
       <x v="4"/>
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i>
       <x v="5"/>
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
   </rowItems>
@@ -37529,7 +37670,7 @@
   <data>
     <tabular pivotCacheId="1">
       <items count="2">
-        <i x="0"/>
+        <i x="0" s="1"/>
         <i x="1" s="1"/>
       </items>
     </tabular>
@@ -37549,8 +37690,8 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Month 1" cache="Slicer_Month" caption="Month" columnCount="5" rowHeight="241300"/>
-  <slicer name="Year 2" cache="Slicer_Year" caption="Year" columnCount="2" rowHeight="241300"/>
+  <slicer name="Month 1" cache="Slicer_Month" caption="Month" startItem="5" columnCount="5" rowHeight="274320"/>
+  <slicer name="Year 2" cache="Slicer_Year" caption="Year" columnCount="2" rowHeight="365760"/>
 </slicers>
 </file>
 
@@ -37916,8 +38057,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="V52" sqref="V52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37950,7 +38091,7 @@
     <mergeCell ref="F1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="47" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -38000,9 +38141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U701"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomLeft" activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83638,17 +83779,17 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>92311094.749999896</v>
+        <v>118726350.25999992</v>
       </c>
       <c r="B4" s="19">
-        <v>13015237.750000009</v>
+        <v>16893702.260000009</v>
       </c>
       <c r="C4" s="7">
-        <v>861132</v>
+        <v>1125806</v>
       </c>
       <c r="D4" s="6">
         <f>GETPIVOTDATA("Sum of Profit",$A$3)/GETPIVOTDATA("Sum of Sales",$A$3)</f>
-        <v>0.14099321197791367</v>
+        <v>0.14229109395685402</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -83673,7 +83814,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="4">
-        <v>11415018.840000002</v>
+        <v>15390801.880000003</v>
       </c>
       <c r="D12" t="str">
         <f>INDEX(A12:B17,MATCH(MAX(B12:B17),B12:B17,0),1)</f>
@@ -83685,7 +83826,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="4">
-        <v>27096396.860000007</v>
+        <v>33011143.950000014</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -83693,11 +83834,11 @@
         <v>56</v>
       </c>
       <c r="B14" s="4">
-        <v>12052759.705000002</v>
+        <v>18250059.465000004</v>
       </c>
       <c r="D14">
         <f>INDEX(A12:B17,MATCH(MAX(B12:B17),B12:B17,0),2)</f>
-        <v>27096396.860000007</v>
+        <v>33011143.950000014</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -83705,7 +83846,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="4">
-        <v>15110493.790000001</v>
+        <v>20511921.020000003</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -83713,7 +83854,7 @@
         <v>67</v>
       </c>
       <c r="B16" s="4">
-        <v>12408442.024999999</v>
+        <v>13815307.885</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -83721,7 +83862,7 @@
         <v>95</v>
       </c>
       <c r="B17" s="4">
-        <v>14227983.529999999</v>
+        <v>17747116.059999999</v>
       </c>
     </row>
   </sheetData>
@@ -83768,14 +83909,14 @@
         <v>33</v>
       </c>
       <c r="B4" s="12">
-        <v>6752737.4299999997</v>
+        <v>10870125.609999999</v>
       </c>
       <c r="C4" s="12">
-        <v>989375.92999999982</v>
+        <v>1852011.11</v>
       </c>
       <c r="D4" s="6">
         <f>GETPIVOTDATA("Sum of Profit",$A$3,"Month","Jan")/GETPIVOTDATA("Sum of Sales",$A$3,"Month","Jan")</f>
-        <v>0.14651479348279647</v>
+        <v>0.17037623818221914</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -83783,14 +83924,14 @@
         <v>62</v>
       </c>
       <c r="B5" s="12">
-        <v>4497192.9849999994</v>
+        <v>6964945.1249999991</v>
       </c>
       <c r="C5" s="12">
-        <v>607889.98499999987</v>
+        <v>924611.12500000012</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ref="D5:D15" si="0">GETPIVOTDATA("Sum of Profit",$A$3,"Month","Jan")/GETPIVOTDATA("Sum of Sales",$A$3,"Month","Jan")</f>
-        <v>0.14651479348279647</v>
+        <v>0.17037623818221914</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -83798,14 +83939,14 @@
         <v>87</v>
       </c>
       <c r="B6" s="12">
-        <v>6466545.3800000008</v>
+        <v>8188402</v>
       </c>
       <c r="C6" s="12">
-        <v>1045128.38</v>
+        <v>1161268.0000000002</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>0.14651479348279647</v>
+        <v>0.17037623818221914</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -83813,14 +83954,14 @@
         <v>72</v>
       </c>
       <c r="B7" s="12">
-        <v>8833873.5800000019</v>
+        <v>11001632.279999997</v>
       </c>
       <c r="C7" s="12">
-        <v>1296628.5799999998</v>
+        <v>1563250.28</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" si="0"/>
-        <v>0.14651479348279647</v>
+        <v>0.17037623818221914</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -83828,14 +83969,14 @@
         <v>109</v>
       </c>
       <c r="B8" s="12">
-        <v>9537481.0249999985</v>
+        <v>11253334.614999996</v>
       </c>
       <c r="C8" s="12">
-        <v>1282178.0249999999</v>
+        <v>1558715.6150000002</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" si="0"/>
-        <v>0.14651479348279647</v>
+        <v>0.17037623818221914</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -83843,14 +83984,14 @@
         <v>151</v>
       </c>
       <c r="B9" s="12">
-        <v>8152630.2399999993</v>
+        <v>10844099.65</v>
       </c>
       <c r="C9" s="12">
-        <v>1026823.74</v>
+        <v>1262862.1499999999</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>0.14651479348279647</v>
+        <v>0.17037623818221914</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -83858,14 +83999,14 @@
         <v>49</v>
       </c>
       <c r="B10" s="12">
-        <v>10494309.960000003</v>
+        <v>13152143.790000003</v>
       </c>
       <c r="C10" s="12">
-        <v>1485010.96</v>
+        <v>1936353.79</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>0.14651479348279647</v>
+        <v>0.17037623818221914</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -83873,14 +84014,14 @@
         <v>44</v>
       </c>
       <c r="B11" s="12">
-        <v>8318646.169999999</v>
+        <v>11259071.219999999</v>
       </c>
       <c r="C11" s="12">
-        <v>1266488.1700000004</v>
+        <v>1719525.2200000002</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>0.14651479348279647</v>
+        <v>0.17037623818221914</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -83888,14 +84029,14 @@
         <v>25</v>
       </c>
       <c r="B12" s="12">
-        <v>6881192.7649999997</v>
+        <v>9120754.1449999977</v>
       </c>
       <c r="C12" s="12">
-        <v>993297.76500000001</v>
+        <v>1309154.1450000003</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" si="0"/>
-        <v>0.14651479348279647</v>
+        <v>0.17037623818221914</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -83903,14 +84044,14 @@
         <v>90</v>
       </c>
       <c r="B13" s="12">
-        <v>5412103.8099999987</v>
+        <v>6777940.169999999</v>
       </c>
       <c r="C13" s="12">
-        <v>502491.80999999982</v>
+        <v>726638.17000000016</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>0.14651479348279647</v>
+        <v>0.17037623818221914</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -83918,14 +84059,14 @@
         <v>76</v>
       </c>
       <c r="B14" s="12">
-        <v>7274177.79</v>
+        <v>7978278.3199999984</v>
       </c>
       <c r="C14" s="12">
-        <v>1271140.2900000003</v>
+        <v>1302452.8199999998</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>0.14651479348279647</v>
+        <v>0.17037623818221914</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -83933,14 +84074,14 @@
         <v>80</v>
       </c>
       <c r="B15" s="12">
-        <v>9690203.6149999984</v>
+        <v>11315623.334999997</v>
       </c>
       <c r="C15" s="12">
-        <v>1248784.115</v>
+        <v>1576859.8350000002</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="0"/>
-        <v>0.14651479348279647</v>
+        <v>0.17037623818221914</v>
       </c>
     </row>
   </sheetData>
@@ -83972,7 +84113,7 @@
         <v>310</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <f>COUNT(B:B)</f>
@@ -83984,7 +84125,7 @@
       </c>
       <c r="G3">
         <f>MIN(F3,D3)</f>
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -83992,7 +84133,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="10">
-        <v>333187.5</v>
+        <v>376312.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -84000,7 +84141,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="10">
-        <v>171082.2</v>
+        <v>241130.1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -84008,7 +84149,7 @@
         <v>39</v>
       </c>
       <c r="B6" s="10">
-        <v>2564370</v>
+        <v>2800770</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -84016,15 +84157,15 @@
         <v>43</v>
       </c>
       <c r="B7" s="10">
-        <v>2868563.6</v>
+        <v>3956873.4500000007</v>
       </c>
       <c r="G7" t="str">
         <f ca="1">OFFSET( A3, $G$3,0)</f>
-        <v>CUST_ID_063</v>
+        <v>CUST_ID_068</v>
       </c>
       <c r="H7">
         <f ca="1">OFFSET( B3, $G$3,0)</f>
-        <v>2120586</v>
+        <v>497477.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -84032,15 +84173,15 @@
         <v>48</v>
       </c>
       <c r="B8" s="10">
-        <v>68766.179999999993</v>
+        <v>83878.98</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ref="G8:H8" ca="1" si="0">OFFSET( A4, $G$3,0)</f>
-        <v>CUST_ID_064</v>
+        <v>CUST_ID_069</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>817309.98</v>
+        <v>1998627</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -84048,15 +84189,15 @@
         <v>52</v>
       </c>
       <c r="B9" s="10">
-        <v>111504.3</v>
+        <v>198132</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ref="G9:H9" ca="1" si="1">OFFSET( A5, $G$3,0)</f>
-        <v>CUST_ID_065</v>
+        <v>CUST_ID_070</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>1993805.76</v>
+        <v>2326353</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -84064,15 +84205,15 @@
         <v>55</v>
       </c>
       <c r="B10" s="10">
-        <v>534168.75</v>
+        <v>792843.75</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ref="G10:H10" ca="1" si="2">OFFSET( A6, $G$3,0)</f>
-        <v>CUST_ID_066</v>
+        <v>CUST_ID_071</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>1662455.07</v>
+        <v>53551.799999999996</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -84080,15 +84221,15 @@
         <v>60</v>
       </c>
       <c r="B11" s="10">
-        <v>1069847.1100000001</v>
+        <v>2038690.51</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ref="G11:H11" ca="1" si="3">OFFSET( A7, $G$3,0)</f>
-        <v>CUST_ID_067</v>
+        <v>CUST_ID_072</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>72521.16</v>
+        <v>1959650.4900000002</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -84096,7 +84237,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="10">
-        <v>387618.75</v>
+        <v>428456.25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -84104,7 +84245,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="10">
-        <v>29976</v>
+        <v>39076.080000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -84112,7 +84253,7 @@
         <v>75</v>
       </c>
       <c r="B14" s="10">
-        <v>206658</v>
+        <v>353376</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -84120,7 +84261,7 @@
         <v>79</v>
       </c>
       <c r="B15" s="10">
-        <v>683397</v>
+        <v>1425303</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -84128,7 +84269,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="10">
-        <v>748865</v>
+        <v>1033861.25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -84136,7 +84277,7 @@
         <v>84</v>
       </c>
       <c r="B17" s="10">
-        <v>14979.72</v>
+        <v>43462.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -84144,7 +84285,7 @@
         <v>86</v>
       </c>
       <c r="B18" s="10">
-        <v>958131.25</v>
+        <v>1299215</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -84152,7 +84293,7 @@
         <v>89</v>
       </c>
       <c r="B19" s="10">
-        <v>1309271.71</v>
+        <v>1374572.47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -84160,7 +84301,7 @@
         <v>92</v>
       </c>
       <c r="B20" s="10">
-        <v>883053</v>
+        <v>1029771</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -84168,7 +84309,7 @@
         <v>94</v>
       </c>
       <c r="B21" s="10">
-        <v>79200.479999999996</v>
+        <v>123624.59999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -84176,7 +84317,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="10">
-        <v>27972</v>
+        <v>32738.85</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -84184,7 +84325,7 @@
         <v>100</v>
       </c>
       <c r="B23" s="10">
-        <v>1533084</v>
+        <v>1596000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -84192,7 +84333,7 @@
         <v>102</v>
       </c>
       <c r="B24" s="10">
-        <v>1382376.45</v>
+        <v>1397091.15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -84200,7 +84341,7 @@
         <v>104</v>
       </c>
       <c r="B25" s="10">
-        <v>136560</v>
+        <v>339910</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -84208,7 +84349,7 @@
         <v>106</v>
       </c>
       <c r="B26" s="10">
-        <v>1016282.5</v>
+        <v>1115385</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -84216,7 +84357,7 @@
         <v>108</v>
       </c>
       <c r="B27" s="10">
-        <v>808521.25</v>
+        <v>1071283.75</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -84224,7 +84365,7 @@
         <v>111</v>
       </c>
       <c r="B28" s="10">
-        <v>74814.540000000008</v>
+        <v>108600.77999999998</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -84232,7 +84373,7 @@
         <v>113</v>
       </c>
       <c r="B29" s="10">
-        <v>142690.04999999999</v>
+        <v>221537.39999999997</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -84240,7 +84381,7 @@
         <v>115</v>
       </c>
       <c r="B30" s="10">
-        <v>2007975.5600000003</v>
+        <v>2864956.6399999992</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -84248,7 +84389,7 @@
         <v>117</v>
       </c>
       <c r="B31" s="10">
-        <v>1810193.52</v>
+        <v>2838468.32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -84256,7 +84397,7 @@
         <v>119</v>
       </c>
       <c r="B32" s="10">
-        <v>338445</v>
+        <v>437547.5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -84264,7 +84405,7 @@
         <v>121</v>
       </c>
       <c r="B33" s="10">
-        <v>409325</v>
+        <v>672087.5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -84272,7 +84413,7 @@
         <v>123</v>
       </c>
       <c r="B34" s="10">
-        <v>488503.04000000004</v>
+        <v>606321.43999999994</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -84280,7 +84421,7 @@
         <v>125</v>
       </c>
       <c r="B35" s="10">
-        <v>1018749</v>
+        <v>1081665</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -84288,7 +84429,7 @@
         <v>127</v>
       </c>
       <c r="B36" s="10">
-        <v>1690602.02</v>
+        <v>1927678.02</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -84296,7 +84437,7 @@
         <v>129</v>
       </c>
       <c r="B37" s="10">
-        <v>1111753.82</v>
+        <v>1798286.2200000002</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -84304,7 +84445,7 @@
         <v>131</v>
       </c>
       <c r="B38" s="10">
-        <v>1154531.3999999999</v>
+        <v>2179576.75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -84312,7 +84453,7 @@
         <v>133</v>
       </c>
       <c r="B39" s="10">
-        <v>74108.399999999994</v>
+        <v>110610.24000000001</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -84320,7 +84461,7 @@
         <v>135</v>
       </c>
       <c r="B40" s="10">
-        <v>1120032.8199999998</v>
+        <v>1791079.27</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -84328,7 +84469,7 @@
         <v>137</v>
       </c>
       <c r="B41" s="10">
-        <v>54236.7</v>
+        <v>112689.45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -84336,7 +84477,7 @@
         <v>139</v>
       </c>
       <c r="B42" s="10">
-        <v>34574.25</v>
+        <v>62874</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -84344,7 +84485,7 @@
         <v>141</v>
       </c>
       <c r="B43" s="10">
-        <v>2873296.3000000003</v>
+        <v>3567885.44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -84352,7 +84493,7 @@
         <v>143</v>
       </c>
       <c r="B44" s="10">
-        <v>621059.85</v>
+        <v>661621.64999999991</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -84360,7 +84501,7 @@
         <v>145</v>
       </c>
       <c r="B45" s="10">
-        <v>1312997.93</v>
+        <v>1332156.6499999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -84368,7 +84509,7 @@
         <v>147</v>
       </c>
       <c r="B46" s="10">
-        <v>800439.11999999988</v>
+        <v>829859.91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -84376,7 +84517,7 @@
         <v>149</v>
       </c>
       <c r="B47" s="10">
-        <v>107422.79999999999</v>
+        <v>134240.4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -84384,7 +84525,7 @@
         <v>152</v>
       </c>
       <c r="B48" s="10">
-        <v>8653.5</v>
+        <v>30455.1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -84392,7 +84533,7 @@
         <v>154</v>
       </c>
       <c r="B49" s="10">
-        <v>51938.324999999997</v>
+        <v>95234.324999999997</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -84400,7 +84541,7 @@
         <v>156</v>
       </c>
       <c r="B50" s="10">
-        <v>1574073.79</v>
+        <v>2579791.79</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -84408,7 +84549,7 @@
         <v>159</v>
       </c>
       <c r="B51" s="10">
-        <v>866482.2</v>
+        <v>880929.39999999991</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -84416,7 +84557,7 @@
         <v>161</v>
       </c>
       <c r="B52" s="10">
-        <v>384703.8</v>
+        <v>664684.34</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -84424,7 +84565,7 @@
         <v>163</v>
       </c>
       <c r="B53" s="10">
-        <v>426630</v>
+        <v>740130</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -84432,7 +84573,7 @@
         <v>165</v>
       </c>
       <c r="B54" s="10">
-        <v>1166780</v>
+        <v>1250380</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -84440,7 +84581,7 @@
         <v>167</v>
       </c>
       <c r="B55" s="10">
-        <v>1900394.87</v>
+        <v>2532864.6800000002</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -84448,7 +84589,7 @@
         <v>169</v>
       </c>
       <c r="B56" s="10">
-        <v>295943.75</v>
+        <v>379543.75</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -84456,7 +84597,7 @@
         <v>171</v>
       </c>
       <c r="B57" s="10">
-        <v>1579878.1700000002</v>
+        <v>2332438.17</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -84464,7 +84605,7 @@
         <v>173</v>
       </c>
       <c r="B58" s="10">
-        <v>397464.25</v>
+        <v>667982.24999999988</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -84472,7 +84613,7 @@
         <v>175</v>
       </c>
       <c r="B59" s="10">
-        <v>1170498.71</v>
+        <v>1803191.71</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -84480,7 +84621,7 @@
         <v>177</v>
       </c>
       <c r="B60" s="10">
-        <v>737574.57000000007</v>
+        <v>757341.02999999991</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -84488,7 +84629,7 @@
         <v>179</v>
       </c>
       <c r="B61" s="10">
-        <v>409275</v>
+        <v>513497.5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -84496,7 +84637,7 @@
         <v>181</v>
       </c>
       <c r="B62" s="10">
-        <v>1098393.3700000001</v>
+        <v>1140656.7100000002</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -84504,7 +84645,7 @@
         <v>183</v>
       </c>
       <c r="B63" s="10">
-        <v>116156.28</v>
+        <v>165020.04</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -84512,7 +84653,7 @@
         <v>184</v>
       </c>
       <c r="B64" s="10">
-        <v>693171</v>
+        <v>1144029</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -84520,7 +84661,7 @@
         <v>186</v>
       </c>
       <c r="B65" s="10">
-        <v>912861</v>
+        <v>1257183</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -84528,7 +84669,7 @@
         <v>188</v>
       </c>
       <c r="B66" s="10">
-        <v>2120586</v>
+        <v>2876940</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -84536,7 +84677,7 @@
         <v>190</v>
       </c>
       <c r="B67" s="10">
-        <v>817309.98</v>
+        <v>1056492.98</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -84544,7 +84685,7 @@
         <v>192</v>
       </c>
       <c r="B68" s="10">
-        <v>1993805.76</v>
+        <v>2686041.5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -84552,7 +84693,7 @@
         <v>194</v>
       </c>
       <c r="B69" s="10">
-        <v>1662455.07</v>
+        <v>1713425.85</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -84560,7 +84701,7 @@
         <v>196</v>
       </c>
       <c r="B70" s="10">
-        <v>72521.16</v>
+        <v>97240.560000000012</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -84568,7 +84709,7 @@
         <v>198</v>
       </c>
       <c r="B71" s="10">
-        <v>206852.5</v>
+        <v>497477.5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -84576,7 +84717,7 @@
         <v>200</v>
       </c>
       <c r="B72" s="10">
-        <v>1685310</v>
+        <v>1998627</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -84584,7 +84725,7 @@
         <v>201</v>
       </c>
       <c r="B73" s="10">
-        <v>1934637</v>
+        <v>2326353</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -84592,7 +84733,7 @@
         <v>203</v>
       </c>
       <c r="B74" s="10">
-        <v>18709.080000000002</v>
+        <v>53551.799999999996</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -84600,7 +84741,7 @@
         <v>205</v>
       </c>
       <c r="B75" s="10">
-        <v>1186033.1800000002</v>
+        <v>1959650.4900000002</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -84608,7 +84749,7 @@
         <v>207</v>
       </c>
       <c r="B76" s="10">
-        <v>1158353.75</v>
+        <v>1273906.25</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -84616,7 +84757,7 @@
         <v>209</v>
       </c>
       <c r="B77" s="10">
-        <v>1038082.5</v>
+        <v>1392190.5</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -84624,7 +84765,7 @@
         <v>211</v>
       </c>
       <c r="B78" s="10">
-        <v>2253453</v>
+        <v>3095841</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -84632,7 +84773,7 @@
         <v>213</v>
       </c>
       <c r="B79" s="10">
-        <v>17082.599999999999</v>
+        <v>32262.6</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -84640,7 +84781,7 @@
         <v>215</v>
       </c>
       <c r="B80" s="10">
-        <v>14452.68</v>
+        <v>18460.32</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -84648,7 +84789,7 @@
         <v>217</v>
       </c>
       <c r="B81" s="10">
-        <v>1507683</v>
+        <v>1908693</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -84656,7 +84797,7 @@
         <v>219</v>
       </c>
       <c r="B82" s="10">
-        <v>156048.75</v>
+        <v>367282.5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -84664,7 +84805,7 @@
         <v>220</v>
       </c>
       <c r="B83" s="10">
-        <v>1117440</v>
+        <v>1208622</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -84672,7 +84813,7 @@
         <v>221</v>
       </c>
       <c r="B84" s="10">
-        <v>47897.1</v>
+        <v>72292.37999999999</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -84680,7 +84821,7 @@
         <v>223</v>
       </c>
       <c r="B85" s="10">
-        <v>9811.7999999999993</v>
+        <v>23052.3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -84688,7 +84829,7 @@
         <v>225</v>
       </c>
       <c r="B86" s="10">
-        <v>39917.760000000002</v>
+        <v>43259.28</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -84696,7 +84837,7 @@
         <v>227</v>
       </c>
       <c r="B87" s="10">
-        <v>44736.12</v>
+        <v>48904.92</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -84704,7 +84845,7 @@
         <v>230</v>
       </c>
       <c r="B88" s="10">
-        <v>910823.125</v>
+        <v>1187520.625</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -84712,7 +84853,7 @@
         <v>232</v>
       </c>
       <c r="B89" s="10">
-        <v>1017468</v>
+        <v>2293218</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -84720,7 +84861,7 @@
         <v>233</v>
       </c>
       <c r="B90" s="10">
-        <v>100561.95</v>
+        <v>129816.45</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -84728,7 +84869,7 @@
         <v>234</v>
       </c>
       <c r="B91" s="10">
-        <v>52992.479999999996</v>
+        <v>65787.12</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -84736,7 +84877,7 @@
         <v>236</v>
       </c>
       <c r="B92" s="10">
-        <v>22302.240000000002</v>
+        <v>33035.64</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -84744,7 +84885,7 @@
         <v>238</v>
       </c>
       <c r="B93" s="10">
-        <v>105265.20000000001</v>
+        <v>126091.20000000001</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -84752,7 +84893,7 @@
         <v>240</v>
       </c>
       <c r="B94" s="10">
-        <v>79985.7</v>
+        <v>88729.95</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -84760,7 +84901,7 @@
         <v>242</v>
       </c>
       <c r="B95" s="10">
-        <v>128880</v>
+        <v>234233.75</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -84768,7 +84909,7 @@
         <v>244</v>
       </c>
       <c r="B96" s="10">
-        <v>1323443.55</v>
+        <v>1440996.09</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -84776,7 +84917,7 @@
         <v>245</v>
       </c>
       <c r="B97" s="10">
-        <v>90956.25</v>
+        <v>356716.25</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -84784,7 +84925,7 @@
         <v>247</v>
       </c>
       <c r="B98" s="10">
-        <v>38021.399999999994</v>
+        <v>67177.56</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -84792,7 +84933,7 @@
         <v>249</v>
       </c>
       <c r="B99" s="10">
-        <v>37651.5</v>
+        <v>46264.5</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -84800,7 +84941,7 @@
         <v>251</v>
       </c>
       <c r="B100" s="10">
-        <v>175260</v>
+        <v>855165</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -84808,7 +84949,7 @@
         <v>253</v>
       </c>
       <c r="B101" s="10">
-        <v>32840.160000000003</v>
+        <v>51318.96</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -84816,7 +84957,7 @@
         <v>254</v>
       </c>
       <c r="B102" s="10">
-        <v>1104619.8700000001</v>
+        <v>1122655.79</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -84824,7 +84965,7 @@
         <v>255</v>
       </c>
       <c r="B103" s="10">
-        <v>414260</v>
+        <v>717517.5</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -84832,7 +84973,7 @@
         <v>256</v>
       </c>
       <c r="B104" s="10">
-        <v>1035625.5</v>
+        <v>1105027.5</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -84840,7 +84981,7 @@
         <v>257</v>
       </c>
       <c r="B105" s="10">
-        <v>356250</v>
+        <v>1010538</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -84848,7 +84989,7 @@
         <v>259</v>
       </c>
       <c r="B106" s="10">
-        <v>22256.324999999997</v>
+        <v>44741.024999999994</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -84856,7 +84997,7 @@
         <v>261</v>
       </c>
       <c r="B107" s="10">
-        <v>28795.95</v>
+        <v>52918.95</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -84864,7 +85005,7 @@
         <v>263</v>
       </c>
       <c r="B108" s="10">
-        <v>790966.25</v>
+        <v>1104828.75</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -84920,7 +85061,7 @@
         <v>271</v>
       </c>
       <c r="B115" s="10">
-        <v>127970.25</v>
+        <v>127970.24999999999</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -85290,7 +85431,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="4">
-        <v>8923318.3899999987</v>
+        <v>10706775.540000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -85298,7 +85439,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="4">
-        <v>13657542</v>
+        <v>16979966.499999996</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -85306,7 +85447,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="4">
-        <v>13338469.840000004</v>
+        <v>17723114.550000008</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -85314,7 +85455,7 @@
         <v>51</v>
       </c>
       <c r="B7" s="4">
-        <v>11912161.675000003</v>
+        <v>14334370.655000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -85322,7 +85463,7 @@
         <v>59</v>
       </c>
       <c r="B8" s="4">
-        <v>9256130.745000001</v>
+        <v>12460671.975</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -85330,7 +85471,7 @@
         <v>54</v>
       </c>
       <c r="B9" s="4">
-        <v>9669139.5700000003</v>
+        <v>14437517.599999998</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -85338,7 +85479,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="4">
-        <v>14598922.690000001</v>
+        <v>18449987.640000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -85346,7 +85487,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="4">
-        <v>10955409.84</v>
+        <v>13633945.799999995</v>
       </c>
     </row>
   </sheetData>
@@ -85390,7 +85531,7 @@
         <v>47</v>
       </c>
       <c r="B4" s="11">
-        <v>1.5193226380840854E-2</v>
+        <v>1.5165914188862551E-2</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>47</v>
@@ -85404,7 +85545,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="11">
-        <v>0.16858354802470799</v>
+        <v>0.16518400786390008</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>21</v>
@@ -85418,7 +85559,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="11">
-        <v>0.42701882690000292</v>
+        <v>0.44222921495540313</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>42</v>
@@ -85432,7 +85573,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="11">
-        <v>1.9885362967163804E-2</v>
+        <v>2.0061958190274443E-2</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>30</v>
@@ -85446,7 +85587,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="11">
-        <v>0.36931903572728442</v>
+        <v>0.35735890480155985</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>38</v>
@@ -85463,7 +85604,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B17"/>
+  <dimension ref="A3:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
@@ -85485,10 +85626,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="13">
-        <v>13015237.750000002</v>
+        <v>2021</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3878464.51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -85496,7 +85637,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="13">
-        <v>989375.92999999982</v>
+        <v>862635.18000000017</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -85504,7 +85645,7 @@
         <v>62</v>
       </c>
       <c r="B6" s="13">
-        <v>607889.98499999987</v>
+        <v>316721.14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -85512,7 +85653,7 @@
         <v>87</v>
       </c>
       <c r="B7" s="13">
-        <v>1045128.38</v>
+        <v>116139.62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -85520,7 +85661,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="13">
-        <v>1296628.5799999998</v>
+        <v>266621.7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -85528,7 +85669,7 @@
         <v>109</v>
       </c>
       <c r="B9" s="13">
-        <v>1282178.0249999999</v>
+        <v>276537.58999999997</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -85536,7 +85677,7 @@
         <v>151</v>
       </c>
       <c r="B10" s="13">
-        <v>1026823.74</v>
+        <v>236038.40999999997</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -85544,7 +85685,7 @@
         <v>49</v>
       </c>
       <c r="B11" s="13">
-        <v>1485010.96</v>
+        <v>451342.83000000007</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -85552,7 +85693,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="13">
-        <v>1266488.1700000004</v>
+        <v>453037.04999999993</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -85560,7 +85701,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="13">
-        <v>993297.76500000001</v>
+        <v>315856.38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -85568,7 +85709,7 @@
         <v>90</v>
       </c>
       <c r="B14" s="13">
-        <v>502491.80999999982</v>
+        <v>224146.36000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -85576,7 +85717,7 @@
         <v>76</v>
       </c>
       <c r="B15" s="13">
-        <v>1271140.2900000003</v>
+        <v>31312.53</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -85584,15 +85725,119 @@
         <v>80</v>
       </c>
       <c r="B16" s="13">
-        <v>1248784.115</v>
+        <v>328075.71999999997</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="13">
+        <v>13015237.750000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="13">
+        <v>989375.92999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="13">
+        <v>607889.98499999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1045128.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1296628.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1282178.0250000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1026823.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="13">
+        <v>1485010.96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1266488.1699999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13">
+        <v>993297.7649999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="13">
+        <v>502491.80999999982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1271140.2900000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1248784.1150000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B17" s="4">
-        <v>13015237.750000002</v>
+      <c r="B30" s="4">
+        <v>16893702.260000002</v>
       </c>
     </row>
   </sheetData>
@@ -85628,7 +85873,7 @@
         <v>97</v>
       </c>
       <c r="B4" s="4">
-        <v>121627</v>
+        <v>155315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -85636,7 +85881,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="4">
-        <v>115442</v>
+        <v>146846</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -85644,7 +85889,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="4">
-        <v>117918</v>
+        <v>154198</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -85652,7 +85897,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="4">
-        <v>255992.5</v>
+        <v>338239.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -85660,7 +85905,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="4">
-        <v>122953.5</v>
+        <v>162424.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -85668,7 +85913,7 @@
         <v>64</v>
       </c>
       <c r="B9" s="4">
-        <v>127199</v>
+        <v>168783</v>
       </c>
     </row>
   </sheetData>
@@ -85689,7 +85934,7 @@
   <dimension ref="A3:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -85731,10 +85976,10 @@
         <v>97</v>
       </c>
       <c r="B5">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C5" s="13">
-        <v>14227983.529999999</v>
+        <v>3519132.5300000003</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>97</v>
@@ -85748,13 +85993,13 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B6">
         <v>2022</v>
       </c>
       <c r="C6" s="13">
-        <v>12408442.024999999</v>
+        <v>14227983.529999997</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>97</v>
@@ -85768,13 +86013,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B7">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C7" s="13">
-        <v>11415018.840000002</v>
+        <v>1406865.86</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>70</v>
@@ -85788,13 +86033,13 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>2022</v>
       </c>
       <c r="C8" s="13">
-        <v>27096396.860000007</v>
+        <v>12408442.025000002</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>70</v>
@@ -85808,13 +86053,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C9" s="13">
-        <v>12052759.705000002</v>
+        <v>3975783.0400000005</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>28</v>
@@ -85828,13 +86073,13 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>2022</v>
       </c>
       <c r="C10" s="13">
-        <v>15110493.790000001</v>
+        <v>11415018.839999996</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>28</v>
@@ -85847,6 +86092,15 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="13">
+        <v>5914747.0900000008</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>36</v>
       </c>
@@ -85858,6 +86112,15 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="13">
+        <v>27096396.860000007</v>
+      </c>
       <c r="E12" s="16" t="s">
         <v>36</v>
       </c>
@@ -85869,6 +86132,15 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="13">
+        <v>6197299.7599999998</v>
+      </c>
       <c r="E13" s="15" t="s">
         <v>58</v>
       </c>
@@ -85880,6 +86152,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14" s="13">
+        <v>12052759.705</v>
+      </c>
       <c r="E14" s="16" t="s">
         <v>58</v>
       </c>
@@ -85891,6 +86172,15 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>2021</v>
+      </c>
+      <c r="C15" s="13">
+        <v>5401427.2300000004</v>
+      </c>
       <c r="E15" s="15" t="s">
         <v>64</v>
       </c>
@@ -85902,6 +86192,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>2022</v>
+      </c>
+      <c r="C16" s="13">
+        <v>15110493.789999997</v>
+      </c>
       <c r="E16" s="16" t="s">
         <v>64</v>
       </c>
